--- a/Labs/Lab07/Lab7Rubric_CS295N.xlsx
+++ b/Labs/Lab07/Lab7Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2969F0C7-012B-EC42-8AC6-C26994283CF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE7F52-545B-B946-8126-851D856A33E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33580" yWindow="8740" windowWidth="23520" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30280" yWindow="5900" windowWidth="20240" windowHeight="18700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
-    <t>-----------------------------------</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Very good work! Good repository implementations and unit tests!</t>
+  </si>
+  <si>
+    <t>Repository and Unit Tests</t>
   </si>
 </sst>
 </file>
@@ -988,28 +988,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C23"/>
+    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1017,18 +1019,18 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1040,13 +1042,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1057,7 +1059,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1069,12 +1071,12 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1086,7 +1088,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1097,7 +1099,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
         <f>SUM(B7:B14)</f>
@@ -1116,13 +1118,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1134,7 +1136,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1146,7 +1148,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1158,7 +1160,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3">
         <f>SUM(B18:B20)</f>
@@ -1176,7 +1178,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="10">
         <f>SUM(B7,B15,B21)</f>
@@ -1299,44 +1301,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1347,12 +1351,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1363,7 +1367,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1374,12 +1378,12 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1390,10 +1394,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1401,11 +1405,11 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
         <f>SUM(B7:B14)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(C7:C14)</f>
@@ -1418,12 +1422,12 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1434,7 +1438,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1445,10 +1449,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1456,11 +1460,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3">
-        <f>SUM(B18:B20)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <f>SUM(C18:C20)</f>
@@ -1472,11 +1475,11 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="10">
         <f>SUM(B7,B15,B21)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C23" s="10">
         <f>SUM(C7,C15,C21)</f>

--- a/Labs/Lab07/Lab7Rubric_CS295N.xlsx
+++ b/Labs/Lab07/Lab7Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE7F52-545B-B946-8126-851D856A33E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50806804-3288-DE40-BDEE-C9DC067FE381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30280" yWindow="5900" windowWidth="20240" windowHeight="18700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1820" windowWidth="20240" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Lab 6, Group A, Community Web Site</t>
-  </si>
-  <si>
     <t>Part 1, Chapter 7 exercise</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Repository and Unit Tests</t>
+  </si>
+  <si>
+    <t>Lab 7, Group A, Community Web Site</t>
   </si>
 </sst>
 </file>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1001,17 +1001,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1019,7 +1019,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="7" spans="1:6" ht="18">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1071,12 +1071,12 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1314,22 +1314,22 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1351,12 +1351,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1378,12 +1378,12 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1422,12 +1422,12 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>2</v>

--- a/Labs/Lab07/Lab7Rubric_CS295N.xlsx
+++ b/Labs/Lab07/Lab7Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50806804-3288-DE40-BDEE-C9DC067FE381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271216BA-6A8F-974D-AC3A-7445F80E423C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1820" windowWidth="20240" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23680" yWindow="8080" windowWidth="20240" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Actual</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Lab 7, Group A, Community Web Site</t>
+  </si>
+  <si>
+    <t>No exercise screen-shots</t>
   </si>
 </sst>
 </file>
@@ -989,7 +992,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1079,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1091,10 +1094,10 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1102,11 +1105,11 @@
         <v>3</v>
       </c>
       <c r="B15" s="3">
-        <f>SUM(B7:B14)</f>
+        <f>SUM(B10:B14)</f>
         <v>35</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM(C7:C14)</f>
+        <f>SUM(C10:C14)</f>
         <v>35</v>
       </c>
       <c r="D15" s="12"/>
@@ -1299,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1312,22 +1315,22 @@
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1346,15 +1349,18 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1376,12 +1382,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -1403,20 +1409,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="3">
-        <f>SUM(B7:B14)</f>
-        <v>35</v>
+        <f>SUM(B10:B14)</f>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM(C7:C14)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <f>SUM(C10:C14)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
@@ -1479,11 +1485,11 @@
       </c>
       <c r="B23" s="10">
         <f>SUM(B7,B15,B21)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C23" s="10">
         <f>SUM(C7,C15,C21)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/Lab07/Lab7Rubric_CS295N.xlsx
+++ b/Labs/Lab07/Lab7Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab07/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271216BA-6A8F-974D-AC3A-7445F80E423C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E4890-8827-5B42-909B-3F02DD9BA724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23680" yWindow="8080" windowWidth="20240" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20240" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Actual</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Lab 7, Group A, Community Web Site</t>
-  </si>
-  <si>
-    <t>No exercise screen-shots</t>
   </si>
 </sst>
 </file>
@@ -992,7 +989,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1076,16 +1073,22 @@
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1302,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C14"/>
+      <selection activeCell="A4" sqref="A4:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1315,22 +1318,22 @@
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1349,18 +1352,15 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1382,12 +1382,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C23" s="10">
         <f>SUM(C7,C15,C21)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
